--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2_ChangeCollidable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4635A7-25F0-49B8-91D8-5D24940EB456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF47A2-3B85-42B1-A4AC-590F985F6B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
     <sheet name="概要" sheetId="5" r:id="rId2"/>
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId3"/>
     <sheet name="クラス設計" sheetId="6" r:id="rId4"/>
+    <sheet name="クラス図" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1125_元データ'!$B$2:$G$106</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="283">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -2031,6 +2032,68 @@
   </si>
   <si>
     <t>エントリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基底クラス</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定をしてる</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターの管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実体は全部ここ</t>
+    <rPh sb="0" eb="2">
+      <t>ジッタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2042,7 +2105,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2128,8 +2191,76 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2320,6 +2451,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2683,7 +2826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2783,16 +2926,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -2802,6 +2957,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9933FF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FF99CCFF"/>
@@ -2810,7 +2966,6 @@
       <color rgb="FF66FFCC"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FF9933FF"/>
       <color rgb="FF99FF33"/>
     </mruColors>
   </colors>
@@ -2840,8 +2995,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>224265</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="インク 3">
@@ -2860,7 +3015,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="インク 3">
@@ -2905,8 +3060,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>94830</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="インク 8">
@@ -2925,7 +3080,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="インク 8">
@@ -2955,6 +3110,1967 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF331B5D-AC86-61C5-F40B-E1DD3D214EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="885825"/>
+          <a:ext cx="1743075" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>Collidable</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>262617</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>235404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83BC259-CB06-4A7B-9D22-D49B68FB01D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9270546" y="820511"/>
+          <a:ext cx="1726747" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>Physics</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>187779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>262617</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4096E8-DC7A-C316-7052-A866EE777A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7157357" y="1249136"/>
+          <a:ext cx="2113189" cy="36059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E130EB8A-0206-405E-87BD-FD7081650C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="2038350"/>
+          <a:ext cx="1743075" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>Actor</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACB837D-461E-40D3-9485-3742FFF7F387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6291263" y="1590675"/>
+          <a:ext cx="9525" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676353</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>341137</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32977</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C610BE59-786C-41AF-85A5-A430514485A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7643210" y="3297331"/>
+          <a:ext cx="2386213" cy="763360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>CharacterBase</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>644338</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175372</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77881</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B11681-B970-432C-9D68-77239A6E041D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3378573" y="3561230"/>
+          <a:ext cx="1738593" cy="696445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>ItemBase</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>75079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>345701</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65554</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B317429-75CD-48F6-9C43-04EAE2667D74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5468470" y="3548903"/>
+          <a:ext cx="1869702" cy="696445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>AttackBase</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649741</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508746</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8706344-8E33-47D4-9199-E8CDA022C076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6255884" y="3086100"/>
+          <a:ext cx="2580433" cy="211231"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673194</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>651342</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B08A7E-13E9-4B71-A968-6EF5F24B81FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4247870" y="2805953"/>
+          <a:ext cx="2028825" cy="755277"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>651342</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>94409</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>75079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EBBA6B-3C86-4618-A93D-C3A1236E457E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276695" y="2805953"/>
+          <a:ext cx="126626" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>374877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>345622</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191BD09C-9675-49FE-AB0E-075663136C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7119257" y="2552020"/>
+          <a:ext cx="2234294" cy="103414"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>345622</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>189140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>640897</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593235F0-E0DE-4174-B841-4D1D469FC29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9353551" y="2121354"/>
+          <a:ext cx="2336346" cy="861332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>ActorManager</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>242846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528917</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7061D802-A4FF-4750-82A3-C1208A0D5F76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515830" y="4515489"/>
+          <a:ext cx="2381730" cy="763361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508746</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>18409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>242846</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8E23E9-AD15-4928-A02D-DDCFA5D3616E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8836317" y="4060691"/>
+          <a:ext cx="870378" cy="454798"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>102323</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>36841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1454727</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A02790-DF90-4062-B40E-2333E847A844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11324505" y="4401023"/>
+          <a:ext cx="2027813" cy="755937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>EnemyBase</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508745</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>36841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>440821</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32977</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2141B724-D9B3-44CC-B2A2-C7BF79BDFA1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8960018" y="4401023"/>
+          <a:ext cx="3378394" cy="481045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>443432</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>136631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7904A3A-8F1F-4603-9862-A99245DE1EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12341023" y="5926964"/>
+          <a:ext cx="2327478" cy="755940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>Enemy1,2,3...</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>440821</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1607171</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108055</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515F694F-6B7B-483D-A9E7-38C3ADA0199A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12338412" y="5156960"/>
+          <a:ext cx="1166350" cy="770004"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168090</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351866</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118222</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CAE2E8-F98D-4AFB-821F-24D77BA6DB2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2218766" y="4975412"/>
+          <a:ext cx="2391335" cy="734545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>Item1,2,3...</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>680199</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673194</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550216A5-1104-4B5C-A0CE-3ED0DE203334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3414434" y="4257675"/>
+          <a:ext cx="833436" cy="717737"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417017</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77318</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85FA54B-4BA1-4FB3-8E32-CA7BDB21BA9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5342803" y="6769954"/>
+          <a:ext cx="2381729" cy="763359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>AttackI,2,3...</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>96010</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247168</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C70EA5D-9807-48F1-B32C-A548218DCB9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6382510" y="4583125"/>
+          <a:ext cx="151158" cy="2186829"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77318</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>184777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E989AB2B-73D3-49CA-A2CD-4570302E0730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7724532" y="4897170"/>
+          <a:ext cx="791298" cy="2254464"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="9933FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77318</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>443432</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>183539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805FF292-A5A0-464D-9909-A1F1A092C820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7835863" y="6304934"/>
+          <a:ext cx="4505160" cy="2070105"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="9933FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>681799</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118222</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618F86C0-CD00-4A40-8784-D9A9ECBFC3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3403228" y="4897170"/>
+          <a:ext cx="5112602" cy="1208195"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="9933FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>675615</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>443432</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118222</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C94388-B9CE-490F-BE4E-C23409C95389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3446524" y="6304934"/>
+          <a:ext cx="8894499" cy="602015"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="9933FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="フローチャート: 代替処理 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7D0E2B-1FBD-9861-D184-1257162AFD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10722429" y="6177643"/>
+          <a:ext cx="10218964" cy="3306536"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="9933FF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>Enemy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>Item</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>Attack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>の生成タイミングと場合によっては動きなどを決めたいので生成した際にそれらの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>weak_ptr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>ActorManager</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>から受け取る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>生成は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>ActorManager</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>内で行い実体は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>ActorManager</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>が持つ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>329045</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE7E9E9-E6B3-4770-ADBC-4729346A099B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14876318" y="1352241"/>
+          <a:ext cx="2286000" cy="33213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>294409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>311727</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5209907E-7C2B-47A0-80A9-AC69718FB65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14824363" y="2372591"/>
+          <a:ext cx="2424546" cy="17318"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>259772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>259773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線矢印コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5EA14F-86E7-4A5B-B624-70133A3CDC76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14789727" y="3307772"/>
+          <a:ext cx="2528455" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="9933FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3015,7 +5131,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3654 2265 24575,'-31'0'0,"-1"1"0,1 2 0,-44 9 0,27-5 0,0-2 0,0-1 0,-90-7 0,32 0 0,-107 17 0,-9-1 0,-473-14-570,663-1 570,0-1 0,0-2 0,-42-11 0,39 7 0,0 2 0,-46-4 0,2 4-296,-124-29-1,100 15 365,24 6-68,0-2 0,-109-41 0,33 1-99,-142-63-168,243 94-776,8 4-1413,-54-34 0,47 23 3124,28 18 685,1 0-1,-40-34 1,58 43-1146,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,1 0 0,0 1 0,-4-18 0,5 14-207,-8-36 0,2 0 0,-2-84 0,10 117 0,0-25 0,9-68 0,-7 94 0,1 0 0,1 0 0,0 1 0,1-1 0,1 1 0,0 0 0,0 1 0,13-18 0,23-32-452,64-83 1134,-88 123-2643,2 2 0,28-24 0,41-35 347,28-23 1558,-19 35 1888,2 4 0,188-87 0,-178 104-2326,2 5 0,1 4 0,131-23 0,-138 33-2142,-63 15 1568,1 2-1,55-6 1,90-1 963,479-21-635,-504 37 1171,239 9-1340,-327-3 2278,0 5 0,-1 2 0,93 29 1,-56-9-509,-49-16 1,0 4 1,75 34-1,-32-2-793,-2 5 0,96 70 0,-123-66 873,89 91 0,-140-126-991,35 33 49,103 128 0,-45-10 0,-106-155 0,0 1 0,-2 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,7 47 0,-3-8 0,-6-36 0,0 0 0,0 37 0,-4 7-1213,-4 124-4358,-1-163 5571,-1 0 0,-16 56 0,-39 48-756,53-117 1900,-1-1 1,0-1-1,-1 1 0,-1-1 0,-1-1 0,-18 23 1,-18 16-1615,31-42 470,1 0 0,-2-1 0,0 0 0,0-2 0,-1 0 0,-33 14 0,-138 66 0,165-80 0,-1-2 0,0 0 0,0-2 0,-47 8 0,34-7 0,-42 13 0,11 4 0,20-7 0,-73 18 0,43-12 0,61-17 0,0-1 0,-1 0 0,-29 3 0,-31 4 0,54-8 0,0-1 0,-30 0 0,45-4 0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,0 1 0,1-1 0,-1-1 0,-9-5 0,-27-13-109,7 3-310,2-1 1,-65-45-1,86 52-6407</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="809.61">5190 1439 24575,'8'1'0,"1"0"0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,0 1 0,12 10 0,42 24 0,10 0 0,-45-24 0,44 19 0,-53-27 0,0 0 0,0-1 0,1-2 0,0 1 0,0-2 0,0-1 0,19 1 0,-2-1 0,-1 2 0,65 16 0,-65-11 0,1-2 0,62 4 0,-94-11 0,64 2 0,0-3 0,126-18 0,-105 3 0,-22 5 0,91-28 0,-129 29 0,-1-2 0,0 0 0,0-1 0,-2-2 0,1-1 0,-2-1 0,29-25 0,-47 35 0,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1-9 0,-1 5 0,1 1 0,0 0 0,12-20 0,140-199 0,-127 185 0,-21 30 0,0 1 0,23-26 0,-12 15 0,-2-1 0,-1 0 0,0-2 0,-2 0 0,15-43 0,-26 61 0,2-5 0,-1-1 0,-1 0 0,0 0 0,1-28 0,5-24 0,-2 21 0,-3-1 0,-2 0 0,-6-86 0,0 26 0,3 30-1365,0 56-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.68">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.67">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1552.66">7387 135 24575,'3'1'0,"-1"-1"0,1 2 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,2 3 0,23 31 0,26 70 0,43 76 0,-6-49 0,-86-126-83,4 8-173,0 0-1,2 0 1,0-1-1,21 25 1,-19-28-6570</inkml:trace>
 </inkml:ink>
 </file>
@@ -3378,11 +5494,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.16158536585365854</v>
+        <v>0.15868263473053892</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3422,7 +5538,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45832</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3487,11 +5603,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-133</v>
+        <v>-136</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.69172932330827064</v>
+        <v>-0.67647058823529416</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3518,11 +5634,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-113</v>
+        <v>-116</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.81415929203539827</v>
+        <v>-0.7931034482758621</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3549,11 +5665,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-102</v>
+        <v>-105</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.90196078431372551</v>
+        <v>-0.87619047619047619</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5108,11 +7224,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>9.1463414634146339E-2</v>
+        <v>8.9820359281437126E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -5130,7 +7246,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45832</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -5151,11 +7267,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.25</v>
+        <v>1.5277777777777777</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -5168,11 +7284,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.94827586206896552</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5185,11 +7301,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -7193,7 +9309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D6D36-0FF7-4DEF-A03E-3AF065CB9BCC}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -7216,72 +9332,65 @@
       <c r="D2" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" t="s">
         <v>264</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="74"/>
-      <c r="C4" s="75" t="s">
+      <c r="C4" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75" t="s">
+      <c r="H4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1">
       <c r="B5" s="74"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
     </row>
     <row r="8" spans="2:8">
       <c r="D8" t="s">
@@ -7300,7 +9409,7 @@
       <c r="F10" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7322,19 +9431,19 @@
       <c r="B13" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="75" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="74"/>
-      <c r="C14" s="75" t="s">
+      <c r="C14" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="75" t="s">
         <v>260</v>
       </c>
       <c r="F14" t="s">
@@ -7343,24 +9452,163 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="74"/>
-      <c r="C15" s="75" t="s">
+      <c r="C15" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="78" t="s">
         <v>262</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557727AE-AD11-447F-B2F8-41A69D110F72}">
+  <dimension ref="E2:AA26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM25" sqref="AM25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:27">
+      <c r="E2" s="83" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="5:27" ht="25.5">
+      <c r="L4" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+    </row>
+    <row r="5" spans="5:27" ht="57.75">
+      <c r="E5" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q5" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA5" s="90"/>
+    </row>
+    <row r="6" spans="5:27">
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+    </row>
+    <row r="7" spans="5:27">
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+    </row>
+    <row r="8" spans="5:27" ht="45.75">
+      <c r="I8" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA8" s="90"/>
+    </row>
+    <row r="9" spans="5:27" ht="30">
+      <c r="L9" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="R9" s="93" t="s">
+        <v>279</v>
+      </c>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+    </row>
+    <row r="10" spans="5:27" ht="45.75">
+      <c r="R10" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA10" s="90"/>
+    </row>
+    <row r="11" spans="5:27">
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+    </row>
+    <row r="25" spans="14:16" ht="33">
+      <c r="N25" s="87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="14:16" ht="39.75">
+      <c r="P26" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7370,6 +9618,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -7612,28 +9881,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7650,23 +9917,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2_ChangeCollidable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADF47A2-3B85-42B1-A4AC-590F985F6B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0796313D-6686-45FB-AAB9-6677B3929AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -5131,7 +5131,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3654 2265 24575,'-31'0'0,"-1"1"0,1 2 0,-44 9 0,27-5 0,0-2 0,0-1 0,-90-7 0,32 0 0,-107 17 0,-9-1 0,-473-14-570,663-1 570,0-1 0,0-2 0,-42-11 0,39 7 0,0 2 0,-46-4 0,2 4-296,-124-29-1,100 15 365,24 6-68,0-2 0,-109-41 0,33 1-99,-142-63-168,243 94-776,8 4-1413,-54-34 0,47 23 3124,28 18 685,1 0-1,-40-34 1,58 43-1146,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,1 0 0,0 1 0,-4-18 0,5 14-207,-8-36 0,2 0 0,-2-84 0,10 117 0,0-25 0,9-68 0,-7 94 0,1 0 0,1 0 0,0 1 0,1-1 0,1 1 0,0 0 0,0 1 0,13-18 0,23-32-452,64-83 1134,-88 123-2643,2 2 0,28-24 0,41-35 347,28-23 1558,-19 35 1888,2 4 0,188-87 0,-178 104-2326,2 5 0,1 4 0,131-23 0,-138 33-2142,-63 15 1568,1 2-1,55-6 1,90-1 963,479-21-635,-504 37 1171,239 9-1340,-327-3 2278,0 5 0,-1 2 0,93 29 1,-56-9-509,-49-16 1,0 4 1,75 34-1,-32-2-793,-2 5 0,96 70 0,-123-66 873,89 91 0,-140-126-991,35 33 49,103 128 0,-45-10 0,-106-155 0,0 1 0,-2 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,7 47 0,-3-8 0,-6-36 0,0 0 0,0 37 0,-4 7-1213,-4 124-4358,-1-163 5571,-1 0 0,-16 56 0,-39 48-756,53-117 1900,-1-1 1,0-1-1,-1 1 0,-1-1 0,-1-1 0,-18 23 1,-18 16-1615,31-42 470,1 0 0,-2-1 0,0 0 0,0-2 0,-1 0 0,-33 14 0,-138 66 0,165-80 0,-1-2 0,0 0 0,0-2 0,-47 8 0,34-7 0,-42 13 0,11 4 0,20-7 0,-73 18 0,43-12 0,61-17 0,0-1 0,-1 0 0,-29 3 0,-31 4 0,54-8 0,0-1 0,-30 0 0,45-4 0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,0 1 0,1-1 0,-1-1 0,-9-5 0,-27-13-109,7 3-310,2-1 1,-65-45-1,86 52-6407</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="809.61">5190 1439 24575,'8'1'0,"1"0"0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,0 1 0,12 10 0,42 24 0,10 0 0,-45-24 0,44 19 0,-53-27 0,0 0 0,0-1 0,1-2 0,0 1 0,0-2 0,0-1 0,19 1 0,-2-1 0,-1 2 0,65 16 0,-65-11 0,1-2 0,62 4 0,-94-11 0,64 2 0,0-3 0,126-18 0,-105 3 0,-22 5 0,91-28 0,-129 29 0,-1-2 0,0 0 0,0-1 0,-2-2 0,1-1 0,-2-1 0,29-25 0,-47 35 0,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1-9 0,-1 5 0,1 1 0,0 0 0,12-20 0,140-199 0,-127 185 0,-21 30 0,0 1 0,23-26 0,-12 15 0,-2-1 0,-1 0 0,0-2 0,-2 0 0,15-43 0,-26 61 0,2-5 0,-1-1 0,-1 0 0,0 0 0,1-28 0,5-24 0,-2 21 0,-3-1 0,-2 0 0,-6-86 0,0 26 0,3 30-1365,0 56-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.67">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.66">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1552.66">7387 135 24575,'3'1'0,"-1"-1"0,1 2 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,2 3 0,23 31 0,26 70 0,43 76 0,-6-49 0,-86-126-83,4 8-173,0 0-1,2 0 1,0-1-1,21 25 1,-19-28-6570</inkml:trace>
 </inkml:ink>
 </file>
@@ -7388,10 +7388,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -7558,7 +7557,7 @@
       <c r="L6" s="41"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="2:13" hidden="1">
+    <row r="7" spans="2:13">
       <c r="B7" s="33" t="s">
         <v>208</v>
       </c>
@@ -7624,7 +7623,7 @@
       </c>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="2:13" hidden="1">
+    <row r="9" spans="2:13">
       <c r="B9" s="48" t="s">
         <v>142</v>
       </c>
@@ -7657,7 +7656,7 @@
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13">
       <c r="B10" s="48" t="s">
         <v>142</v>
       </c>
@@ -7682,7 +7681,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13">
       <c r="B11" s="48" t="s">
         <v>142</v>
       </c>
@@ -7715,7 +7714,7 @@
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" hidden="1" thickBot="1">
+    <row r="12" spans="2:13" ht="33.75" thickBot="1">
       <c r="B12" s="48" t="s">
         <v>142</v>
       </c>
@@ -7748,7 +7747,7 @@
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="2:13" hidden="1">
+    <row r="13" spans="2:13">
       <c r="B13" s="48" t="s">
         <v>142</v>
       </c>
@@ -7771,7 +7770,7 @@
       <c r="K13" s="56"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:13" hidden="1">
+    <row r="14" spans="2:13">
       <c r="B14" s="57" t="s">
         <v>145</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="2:13" hidden="1">
+    <row r="15" spans="2:13">
       <c r="B15" s="57" t="s">
         <v>145</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13">
       <c r="B16" s="57" t="s">
         <v>145</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:8" hidden="1">
+    <row r="17" spans="2:8">
       <c r="B17" s="57" t="s">
         <v>145</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1">
+    <row r="18" spans="2:8">
       <c r="B18" s="57" t="s">
         <v>145</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1">
+    <row r="19" spans="2:8">
       <c r="B19" s="57" t="s">
         <v>145</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1">
+    <row r="20" spans="2:8">
       <c r="B20" s="57" t="s">
         <v>145</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1">
+    <row r="21" spans="2:8">
       <c r="B21" s="57" t="s">
         <v>145</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1">
+    <row r="22" spans="2:8">
       <c r="B22" s="57" t="s">
         <v>145</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1">
+    <row r="23" spans="2:8">
       <c r="B23" s="57" t="s">
         <v>145</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1">
+    <row r="24" spans="2:8">
       <c r="B24" s="57" t="s">
         <v>145</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1">
+    <row r="25" spans="2:8">
       <c r="B25" s="57" t="s">
         <v>145</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1">
+    <row r="28" spans="2:8">
       <c r="B28" s="59" t="s">
         <v>176</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1">
+    <row r="29" spans="2:8">
       <c r="B29" s="59" t="s">
         <v>176</v>
       </c>
@@ -8097,7 +8096,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1">
+    <row r="30" spans="2:8">
       <c r="B30" s="59" t="s">
         <v>176</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1">
+    <row r="31" spans="2:8">
       <c r="B31" s="59" t="s">
         <v>176</v>
       </c>
@@ -8137,7 +8136,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
+    <row r="32" spans="2:8">
       <c r="B32" s="59" t="s">
         <v>176</v>
       </c>
@@ -8160,7 +8159,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1">
+    <row r="33" spans="2:8">
       <c r="B33" s="60" t="s">
         <v>180</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1">
+    <row r="34" spans="2:8">
       <c r="B34" s="60" t="s">
         <v>181</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1">
+    <row r="35" spans="2:8">
       <c r="B35" s="60" t="s">
         <v>182</v>
       </c>
@@ -8220,7 +8219,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1">
+    <row r="36" spans="2:8">
       <c r="B36" s="60" t="s">
         <v>199</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1">
+    <row r="37" spans="2:8">
       <c r="B37" s="60" t="s">
         <v>199</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1">
+    <row r="38" spans="2:8">
       <c r="B38" s="60" t="s">
         <v>230</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1">
+    <row r="44" spans="2:8">
       <c r="B44" s="61" t="s">
         <v>215</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1">
+    <row r="46" spans="2:8">
       <c r="B46" s="61" t="s">
         <v>215</v>
       </c>
@@ -8500,7 +8499,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1">
+    <row r="50" spans="2:8">
       <c r="B50" s="62" t="s">
         <v>150</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1">
+    <row r="51" spans="2:8">
       <c r="B51" s="62" t="s">
         <v>150</v>
       </c>
@@ -8546,7 +8545,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="2:8" hidden="1">
+    <row r="52" spans="2:8">
       <c r="B52" s="62" t="s">
         <v>150</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="2:8" hidden="1">
+    <row r="53" spans="2:8">
       <c r="B53" s="63" t="s">
         <v>153</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="2:8" hidden="1">
+    <row r="61" spans="2:8">
       <c r="B61" s="65" t="s">
         <v>155</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1">
+    <row r="81" spans="2:8">
       <c r="B81" s="68" t="s">
         <v>161</v>
       </c>
@@ -9166,7 +9165,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1">
+    <row r="83" spans="2:8">
       <c r="B83" s="68" t="s">
         <v>161</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1">
+    <row r="88" spans="2:8">
       <c r="B88" s="26" t="s">
         <v>165</v>
       </c>
@@ -9275,19 +9274,7 @@
       <c r="H89" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H88" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="アルファ"/>
-        <filter val="プロト"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="未着手"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:H88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D88" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
@@ -9482,7 +9469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557727AE-AD11-447F-B2F8-41A69D110F72}">
   <dimension ref="E2:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AM25" sqref="AM25"/>
     </sheetView>
   </sheetViews>
@@ -9618,27 +9605,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -9881,26 +9847,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9917,4 +9885,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2_ChangeCollidable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0796313D-6686-45FB-AAB9-6677B3929AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3058A4-2668-479A-9118-E9E7EAD46F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1125_元データ'!$B$2:$G$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$86</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="280">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1594,21 +1594,6 @@
     <rPh sb="8" eb="10">
       <t>ジッソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体力</t>
-    <rPh sb="0" eb="2">
-      <t>タイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムドロップ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2826,7 +2811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2921,7 +2906,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5131,7 +5115,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3654 2265 24575,'-31'0'0,"-1"1"0,1 2 0,-44 9 0,27-5 0,0-2 0,0-1 0,-90-7 0,32 0 0,-107 17 0,-9-1 0,-473-14-570,663-1 570,0-1 0,0-2 0,-42-11 0,39 7 0,0 2 0,-46-4 0,2 4-296,-124-29-1,100 15 365,24 6-68,0-2 0,-109-41 0,33 1-99,-142-63-168,243 94-776,8 4-1413,-54-34 0,47 23 3124,28 18 685,1 0-1,-40-34 1,58 43-1146,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,1 0 0,0 1 0,-4-18 0,5 14-207,-8-36 0,2 0 0,-2-84 0,10 117 0,0-25 0,9-68 0,-7 94 0,1 0 0,1 0 0,0 1 0,1-1 0,1 1 0,0 0 0,0 1 0,13-18 0,23-32-452,64-83 1134,-88 123-2643,2 2 0,28-24 0,41-35 347,28-23 1558,-19 35 1888,2 4 0,188-87 0,-178 104-2326,2 5 0,1 4 0,131-23 0,-138 33-2142,-63 15 1568,1 2-1,55-6 1,90-1 963,479-21-635,-504 37 1171,239 9-1340,-327-3 2278,0 5 0,-1 2 0,93 29 1,-56-9-509,-49-16 1,0 4 1,75 34-1,-32-2-793,-2 5 0,96 70 0,-123-66 873,89 91 0,-140-126-991,35 33 49,103 128 0,-45-10 0,-106-155 0,0 1 0,-2 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,7 47 0,-3-8 0,-6-36 0,0 0 0,0 37 0,-4 7-1213,-4 124-4358,-1-163 5571,-1 0 0,-16 56 0,-39 48-756,53-117 1900,-1-1 1,0-1-1,-1 1 0,-1-1 0,-1-1 0,-18 23 1,-18 16-1615,31-42 470,1 0 0,-2-1 0,0 0 0,0-2 0,-1 0 0,-33 14 0,-138 66 0,165-80 0,-1-2 0,0 0 0,0-2 0,-47 8 0,34-7 0,-42 13 0,11 4 0,20-7 0,-73 18 0,43-12 0,61-17 0,0-1 0,-1 0 0,-29 3 0,-31 4 0,54-8 0,0-1 0,-30 0 0,45-4 0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,0 1 0,1-1 0,-1-1 0,-9-5 0,-27-13-109,7 3-310,2-1 1,-65-45-1,86 52-6407</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="809.61">5190 1439 24575,'8'1'0,"1"0"0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,0 1 0,12 10 0,42 24 0,10 0 0,-45-24 0,44 19 0,-53-27 0,0 0 0,0-1 0,1-2 0,0 1 0,0-2 0,0-1 0,19 1 0,-2-1 0,-1 2 0,65 16 0,-65-11 0,1-2 0,62 4 0,-94-11 0,64 2 0,0-3 0,126-18 0,-105 3 0,-22 5 0,91-28 0,-129 29 0,-1-2 0,0 0 0,0-1 0,-2-2 0,1-1 0,-2-1 0,29-25 0,-47 35 0,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1-9 0,-1 5 0,1 1 0,0 0 0,12-20 0,140-199 0,-127 185 0,-21 30 0,0 1 0,23-26 0,-12 15 0,-2-1 0,-1 0 0,0-2 0,-2 0 0,15-43 0,-26 61 0,2-5 0,-1-1 0,-1 0 0,0 0 0,1-28 0,5-24 0,-2 21 0,-3-1 0,-2 0 0,-6-86 0,0 26 0,3 30-1365,0 56-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.66">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.65">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1552.66">7387 135 24575,'3'1'0,"-1"-1"0,1 2 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,2 3 0,23 31 0,26 70 0,43 76 0,-6-49 0,-86-126-83,4 8-173,0 0-1,2 0 1,0-1-1,21 25 1,-19-28-6570</inkml:trace>
 </inkml:ink>
 </file>
@@ -5494,11 +5478,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.15868263473053892</v>
+        <v>0.15497076023391812</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5538,7 +5522,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45837</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5603,11 +5587,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-136</v>
+        <v>-140</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.67647058823529416</v>
+        <v>-0.65714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5634,11 +5618,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-116</v>
+        <v>-120</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.7931034482758621</v>
+        <v>-0.76666666666666672</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5665,11 +5649,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-105</v>
+        <v>-109</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.87619047619047619</v>
+        <v>-0.84403669724770647</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7202,8 +7186,8 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F3:F118)</f>
-        <v>42.5</v>
+        <f>SUM(作業工数見積もり!F3:F116)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -7212,7 +7196,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -7224,11 +7208,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>8.9820359281437126E-2</v>
+        <v>9.9415204678362568E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -7246,7 +7230,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45837</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -7267,11 +7251,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.5277777777777777</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -7284,11 +7268,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>1.1000000000000001</v>
+        <v>1.1363636363636365</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -7301,11 +7285,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.6875</v>
+        <v>0.67567567567567566</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -7388,10 +7372,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M89"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -7462,7 +7447,7 @@
       </c>
       <c r="K3" s="36">
         <f>SUM(K4,K5,K6)</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
@@ -7491,7 +7476,7 @@
         <v>126</v>
       </c>
       <c r="K4" s="40">
-        <f>COUNTIF(E3:E86,J4)</f>
+        <f>COUNTIF(E3:E84,J4)</f>
         <v>40</v>
       </c>
       <c r="L4" s="41"/>
@@ -7521,8 +7506,8 @@
         <v>1</v>
       </c>
       <c r="K5" s="40">
-        <f>COUNTIF(E3:E86,J5)</f>
-        <v>40</v>
+        <f>COUNTIF(E3:E84,J5)</f>
+        <v>38</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="38"/>
@@ -7551,13 +7536,13 @@
         <v>127</v>
       </c>
       <c r="K6" s="40">
-        <f>COUNTIF(E3:E86,J6)</f>
+        <f>COUNTIF(E3:E84,J6)</f>
         <v>4</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" hidden="1">
       <c r="B7" s="33" t="s">
         <v>208</v>
       </c>
@@ -7574,23 +7559,23 @@
         <v>1</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="44" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="40">
-        <f>COUNTIF(H3:H86,J7)</f>
-        <v>35</v>
+        <f>COUNTIF(H3:H84,J7)</f>
+        <v>38</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.41666666666666669</v>
+        <v>0.46341463414634149</v>
       </c>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="33" t="s">
         <v>208</v>
       </c>
@@ -7607,23 +7592,23 @@
         <v>2</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="46" t="s">
         <v>140</v>
       </c>
       <c r="K8" s="40">
-        <f>COUNTIF(H3:H86,J8)</f>
-        <v>49</v>
+        <f>COUNTIF(H3:H84,J8)</f>
+        <v>44</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.58333333333333337</v>
+        <v>0.53658536585365857</v>
       </c>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" hidden="1">
       <c r="B9" s="48" t="s">
         <v>142</v>
       </c>
@@ -7643,25 +7628,25 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="49" t="s">
         <v>141</v>
       </c>
       <c r="K9" s="31">
-        <f>COUNTIF(H3:H86,J9)</f>
+        <f>COUNTIF(H3:H84,J9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="48" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -7673,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="50"/>
@@ -7681,7 +7666,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="48" t="s">
         <v>142</v>
       </c>
@@ -7701,20 +7686,20 @@
         <v>0.25</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="51" t="s">
         <v>143</v>
       </c>
       <c r="K11" s="31">
-        <f>SUM(F3:F86)</f>
-        <v>42.25</v>
+        <f>SUM(F3:F84)</f>
+        <v>41.75</v>
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" thickBot="1">
+    <row r="12" spans="2:13" ht="33.75" hidden="1" thickBot="1">
       <c r="B12" s="48" t="s">
         <v>142</v>
       </c>
@@ -7734,7 +7719,7 @@
         <v>0.25</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="52" t="s">
@@ -7742,17 +7727,17 @@
       </c>
       <c r="K12" s="53">
         <f>8*K11</f>
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" hidden="1">
       <c r="B13" s="48" t="s">
         <v>142</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>9</v>
@@ -7764,13 +7749,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" hidden="1">
       <c r="B14" s="57" t="s">
         <v>145</v>
       </c>
@@ -7787,15 +7772,15 @@
         <v>0.25</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" hidden="1">
       <c r="B15" s="57" t="s">
         <v>145</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>9</v>
@@ -7807,10 +7792,10 @@
         <v>0.25</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="57" t="s">
         <v>145</v>
       </c>
@@ -7827,10 +7812,10 @@
         <v>0.25</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" hidden="1">
       <c r="B17" s="57" t="s">
         <v>145</v>
       </c>
@@ -7850,10 +7835,10 @@
         <v>0.25</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" hidden="1">
       <c r="B18" s="57" t="s">
         <v>145</v>
       </c>
@@ -7873,10 +7858,10 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" hidden="1">
       <c r="B19" s="57" t="s">
         <v>145</v>
       </c>
@@ -7893,10 +7878,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" hidden="1">
       <c r="B20" s="57" t="s">
         <v>145</v>
       </c>
@@ -7913,10 +7898,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" hidden="1">
       <c r="B21" s="57" t="s">
         <v>145</v>
       </c>
@@ -7933,10 +7918,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" hidden="1">
       <c r="B22" s="57" t="s">
         <v>145</v>
       </c>
@@ -7953,10 +7938,10 @@
         <v>0.5</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" hidden="1">
       <c r="B23" s="57" t="s">
         <v>145</v>
       </c>
@@ -7973,10 +7958,10 @@
         <v>0.25</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1">
       <c r="B24" s="57" t="s">
         <v>145</v>
       </c>
@@ -7993,10 +7978,10 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" hidden="1">
       <c r="B25" s="57" t="s">
         <v>145</v>
       </c>
@@ -8013,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -8056,7 +8041,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" hidden="1">
       <c r="B28" s="59" t="s">
         <v>176</v>
       </c>
@@ -8073,10 +8058,10 @@
         <v>0.25</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" hidden="1">
       <c r="B29" s="59" t="s">
         <v>176</v>
       </c>
@@ -8093,15 +8078,15 @@
         <v>0.5</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1">
       <c r="B30" s="59" t="s">
         <v>176</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>9</v>
@@ -8113,10 +8098,10 @@
         <v>0.25</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1">
       <c r="B31" s="59" t="s">
         <v>176</v>
       </c>
@@ -8133,10 +8118,10 @@
         <v>0.25</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1">
       <c r="B32" s="59" t="s">
         <v>176</v>
       </c>
@@ -8156,15 +8141,15 @@
         <v>0.25</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1">
       <c r="B33" s="60" t="s">
         <v>180</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>9</v>
@@ -8176,15 +8161,15 @@
         <v>0.5</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" hidden="1">
       <c r="B34" s="60" t="s">
         <v>181</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>9</v>
@@ -8196,15 +8181,15 @@
         <v>0.5</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1">
       <c r="B35" s="60" t="s">
         <v>182</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>9</v>
@@ -8216,15 +8201,15 @@
         <v>0.5</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" hidden="1">
       <c r="B36" s="60" t="s">
         <v>199</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>9</v>
@@ -8236,15 +8221,15 @@
         <v>0.5</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" hidden="1">
       <c r="B37" s="60" t="s">
         <v>199</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>9</v>
@@ -8256,15 +8241,15 @@
         <v>0.5</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1">
       <c r="B38" s="60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>9</v>
@@ -8276,15 +8261,15 @@
         <v>0.5</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>9</v>
@@ -8301,10 +8286,10 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>9</v>
@@ -8321,10 +8306,10 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>9</v>
@@ -8341,10 +8326,10 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="60" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>9</v>
@@ -8361,10 +8346,10 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="60" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>9</v>
@@ -8379,7 +8364,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" hidden="1">
       <c r="B44" s="61" t="s">
         <v>215</v>
       </c>
@@ -8396,7 +8381,7 @@
         <v>0.25</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -8416,10 +8401,10 @@
         <v>0.25</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1">
       <c r="B46" s="61" t="s">
         <v>215</v>
       </c>
@@ -8436,7 +8421,7 @@
         <v>0.5</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -8456,18 +8441,18 @@
         <v>0.25</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="70" t="s">
         <v>222</v>
       </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1">
+      <c r="B48" s="62" t="s">
+        <v>150</v>
+      </c>
       <c r="C48" s="26" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>18</v>
@@ -8475,102 +8460,102 @@
       <c r="F48" s="27">
         <v>0.25</v>
       </c>
+      <c r="G48" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H48" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="70" t="s">
         <v>222</v>
       </c>
+    </row>
+    <row r="49" spans="2:8" hidden="1">
+      <c r="B49" s="62" t="s">
+        <v>150</v>
+      </c>
       <c r="C49" s="26" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="27">
+        <v>0.5</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" hidden="1">
       <c r="B50" s="62" t="s">
         <v>150</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F50" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G50" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="62" t="s">
-        <v>150</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" hidden="1">
+      <c r="B51" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F51" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G51" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="62" t="s">
-        <v>150</v>
+      <c r="B52" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F52" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="63" t="s">
-        <v>153</v>
+      <c r="B53" s="64" t="s">
+        <v>154</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>9</v>
@@ -8582,21 +8567,21 @@
         <v>1</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="63" t="s">
-        <v>153</v>
+      <c r="B54" s="64" t="s">
+        <v>154</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F54" s="27">
         <v>1</v>
@@ -8610,13 +8595,13 @@
         <v>154</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F55" s="27">
         <v>1</v>
@@ -8630,56 +8615,56 @@
         <v>154</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F56" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H56" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="64" t="s">
-        <v>154</v>
+      <c r="B57" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H57" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="64" t="s">
-        <v>154</v>
+      <c r="B58" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F58" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H58" s="27" t="s">
         <v>134</v>
@@ -8690,13 +8675,13 @@
         <v>155</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F59" s="27">
         <v>0.25</v>
@@ -8710,33 +8695,33 @@
         <v>155</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E60" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H60" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="65" t="s">
-        <v>155</v>
+      <c r="B61" s="66" t="s">
+        <v>185</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F61" s="27">
         <v>0.25</v>
@@ -8746,20 +8731,20 @@
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="65" t="s">
-        <v>155</v>
+      <c r="B62" s="66" t="s">
+        <v>185</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H62" s="27" t="s">
         <v>134</v>
@@ -8770,10 +8755,10 @@
         <v>185</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E63" s="27" t="s">
         <v>18</v>
@@ -8790,10 +8775,10 @@
         <v>185</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>18</v>
@@ -8810,16 +8795,16 @@
         <v>185</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F65" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H65" s="27" t="s">
         <v>134</v>
@@ -8830,7 +8815,7 @@
         <v>185</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>9</v>
@@ -8839,7 +8824,7 @@
         <v>18</v>
       </c>
       <c r="F66" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H66" s="27" t="s">
         <v>134</v>
@@ -8850,13 +8835,13 @@
         <v>185</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F67" s="27">
         <v>1</v>
@@ -8870,16 +8855,16 @@
         <v>185</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F68" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H68" s="27" t="s">
         <v>134</v>
@@ -8890,33 +8875,33 @@
         <v>185</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F69" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H69" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="66" t="s">
-        <v>185</v>
+      <c r="B70" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F70" s="27">
         <v>0.25</v>
@@ -8926,20 +8911,20 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="66" t="s">
-        <v>185</v>
+      <c r="B71" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F71" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H71" s="27" t="s">
         <v>134</v>
@@ -8950,7 +8935,7 @@
         <v>160</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>9</v>
@@ -8959,7 +8944,7 @@
         <v>18</v>
       </c>
       <c r="F72" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H72" s="27" t="s">
         <v>134</v>
@@ -8970,7 +8955,7 @@
         <v>160</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>9</v>
@@ -8990,7 +8975,7 @@
         <v>160</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>9</v>
@@ -9010,7 +8995,7 @@
         <v>160</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>9</v>
@@ -9026,11 +9011,11 @@
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="67" t="s">
-        <v>160</v>
+      <c r="B76" s="68" t="s">
+        <v>161</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>9</v>
@@ -9039,18 +9024,18 @@
         <v>18</v>
       </c>
       <c r="F76" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H76" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="67" t="s">
-        <v>160</v>
+      <c r="B77" s="68" t="s">
+        <v>161</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>9</v>
@@ -9059,7 +9044,7 @@
         <v>18</v>
       </c>
       <c r="F77" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H77" s="27" t="s">
         <v>134</v>
@@ -9069,17 +9054,17 @@
       <c r="B78" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="26" t="s">
-        <v>162</v>
+      <c r="C78" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E78" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H78" s="27" t="s">
         <v>134</v>
@@ -9090,16 +9075,16 @@
         <v>161</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F79" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H79" s="27" t="s">
         <v>134</v>
@@ -9109,11 +9094,11 @@
       <c r="B80" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="30" t="s">
-        <v>197</v>
+      <c r="C80" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E80" s="27" t="s">
         <v>18</v>
@@ -9130,27 +9115,27 @@
         <v>161</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E81" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F81" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H81" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="68" t="s">
-        <v>161</v>
+      <c r="B82" s="57" t="s">
+        <v>138</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>9</v>
@@ -9159,27 +9144,27 @@
         <v>18</v>
       </c>
       <c r="F82" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H82" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="68" t="s">
-        <v>161</v>
+      <c r="B83" s="57" t="s">
+        <v>138</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F83" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H83" s="27" t="s">
         <v>134</v>
@@ -9190,7 +9175,7 @@
         <v>138</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>9</v>
@@ -9210,7 +9195,7 @@
         <v>138</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>9</v>
@@ -9219,71 +9204,37 @@
         <v>18</v>
       </c>
       <c r="F85" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H85" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H86" s="27" t="s">
-        <v>134</v>
+      <c r="B86" s="26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="H89" s="69"/>
+      <c r="H87" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H86" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="未着手"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D88" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D86" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E88" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E86" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H88" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H86" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9312,150 +9263,150 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D3" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="73"/>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="73"/>
+      <c r="C5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B6" s="75"/>
+      <c r="C6" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D6" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F6" s="78" t="s">
         <v>264</v>
-      </c>
-      <c r="H3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="74"/>
-      <c r="C4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="H4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B5" s="74"/>
-      <c r="C5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>253</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="D8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="C9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="F10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="19.5" thickBot="1">
       <c r="F11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="71"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="73" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="74" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="73"/>
+      <c r="C14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="F14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="73"/>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="77" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="74"/>
-      <c r="C14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="F14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="74"/>
-      <c r="C15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B16" s="76"/>
-      <c r="C16" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -9482,120 +9433,120 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:27">
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="5:27" ht="25.5">
+      <c r="L4" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+    </row>
+    <row r="5" spans="5:27" ht="57.75">
+      <c r="E5" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="92" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="5:27" ht="25.5">
-      <c r="L4" s="84" t="s">
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA5" s="89"/>
+    </row>
+    <row r="6" spans="5:27">
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+    </row>
+    <row r="7" spans="5:27">
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+    </row>
+    <row r="8" spans="5:27" ht="45.75">
+      <c r="I8" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA8" s="89"/>
+    </row>
+    <row r="9" spans="5:27" ht="30">
+      <c r="L9" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="R9" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-    </row>
-    <row r="5" spans="5:27" ht="57.75">
-      <c r="E5" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q5" s="93" t="s">
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+    </row>
+    <row r="10" spans="5:27" ht="45.75">
+      <c r="R10" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA5" s="90"/>
-    </row>
-    <row r="6" spans="5:27">
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-    </row>
-    <row r="7" spans="5:27">
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-    </row>
-    <row r="8" spans="5:27" ht="45.75">
-      <c r="I8" s="85" t="s">
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="92" t="s">
+      <c r="AA10" s="89"/>
+    </row>
+    <row r="11" spans="5:27">
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+    </row>
+    <row r="25" spans="14:16" ht="33">
+      <c r="N25" s="86" t="s">
         <v>277</v>
       </c>
-      <c r="AA8" s="90"/>
-    </row>
-    <row r="9" spans="5:27" ht="30">
-      <c r="L9" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="R9" s="93" t="s">
-        <v>279</v>
-      </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-    </row>
-    <row r="10" spans="5:27" ht="45.75">
-      <c r="R10" s="88" t="s">
-        <v>281</v>
-      </c>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA10" s="90"/>
-    </row>
-    <row r="11" spans="5:27">
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-    </row>
-    <row r="25" spans="14:16" ht="33">
-      <c r="N25" s="87" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="26" spans="14:16" ht="39.75">
-      <c r="P26" s="86"/>
+      <c r="P26" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9605,6 +9556,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -9847,28 +9819,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9885,23 +9855,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2_ChangeCollidable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3058A4-2668-479A-9118-E9E7EAD46F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD7B24-8F5E-4C1D-8FCD-621B46599D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
     <sheet name="概要" sheetId="5" r:id="rId2"/>
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId3"/>
-    <sheet name="クラス設計" sheetId="6" r:id="rId4"/>
-    <sheet name="クラス図" sheetId="7" r:id="rId5"/>
+    <sheet name="K2までの予定" sheetId="8" r:id="rId4"/>
+    <sheet name="クラス設計" sheetId="6" r:id="rId5"/>
+    <sheet name="クラス図" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1125_元データ'!$B$2:$G$106</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="288">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -2078,6 +2079,62 @@
     <t>クラス図</t>
     <rPh sb="3" eb="4">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すごろくのマスみたいな感じにしたい</t>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2245,7 +2302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2447,6 +2504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2811,7 +2874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2932,6 +2995,12 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -2965,6 +3034,1646 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB5D5A4-28E4-2D64-913E-80549B4D2A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1924050"/>
+          <a:ext cx="2047875" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Effect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を実装する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Effeckseer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の準備</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Effect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をつける</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトルとかでもエフェクト使いたいのでシングルトンクラスにしようかな</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D93DD3-622E-4FB7-B498-E7BB1D98188A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="1952625"/>
+          <a:ext cx="2047875" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タイトルシーンの作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ステージセレクトシーン作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージセレクトの決定処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DD049C-08AC-7DD4-A794-466F84331775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="4610100"/>
+          <a:ext cx="4314825" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージセレクトシーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="グラフィックス 7" descr="野球 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DABC260-F4B8-73DE-21D0-8EBD085C8D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="5295900"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B84FA63-8440-C237-92B8-45C4C1423FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="6153150"/>
+          <a:ext cx="1171575" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2741DC8-7BA7-466F-AD84-6D3D46C8B2CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="6153150"/>
+          <a:ext cx="1171575" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAD8724-F2AB-47FE-82C0-75B6FB6D21CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="6153150"/>
+          <a:ext cx="1171575" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFD50D0-E548-4D11-BA29-5682EF8ED9F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="1924050"/>
+          <a:ext cx="2047875" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ヒットストップの実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃クラスが止めるタイミングを決める</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カメラは揺らしたい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ヒットストップの長さと揺れの強さを決められるようにしたい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1637D85F-3BA3-406F-8AB1-1E698A8781CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="1905000"/>
+          <a:ext cx="2990850" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Boss2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボスのステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円柱</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の用意</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボスの仕様</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>近づいて殴る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>近距離</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>速い弾を打ってくる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>遠距離</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>体力が半分を下回ったら形態変化</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ビーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>突進攻撃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF8DF8B-506C-4D3C-B336-4C2A8F41BB2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572750" y="1895476"/>
+          <a:ext cx="1619250" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>17</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>音入れ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(BGM,SE)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>音量調整</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3099,7 +4808,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5115,7 +6824,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3654 2265 24575,'-31'0'0,"-1"1"0,1 2 0,-44 9 0,27-5 0,0-2 0,0-1 0,-90-7 0,32 0 0,-107 17 0,-9-1 0,-473-14-570,663-1 570,0-1 0,0-2 0,-42-11 0,39 7 0,0 2 0,-46-4 0,2 4-296,-124-29-1,100 15 365,24 6-68,0-2 0,-109-41 0,33 1-99,-142-63-168,243 94-776,8 4-1413,-54-34 0,47 23 3124,28 18 685,1 0-1,-40-34 1,58 43-1146,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,1 0 0,0 1 0,-4-18 0,5 14-207,-8-36 0,2 0 0,-2-84 0,10 117 0,0-25 0,9-68 0,-7 94 0,1 0 0,1 0 0,0 1 0,1-1 0,1 1 0,0 0 0,0 1 0,13-18 0,23-32-452,64-83 1134,-88 123-2643,2 2 0,28-24 0,41-35 347,28-23 1558,-19 35 1888,2 4 0,188-87 0,-178 104-2326,2 5 0,1 4 0,131-23 0,-138 33-2142,-63 15 1568,1 2-1,55-6 1,90-1 963,479-21-635,-504 37 1171,239 9-1340,-327-3 2278,0 5 0,-1 2 0,93 29 1,-56-9-509,-49-16 1,0 4 1,75 34-1,-32-2-793,-2 5 0,96 70 0,-123-66 873,89 91 0,-140-126-991,35 33 49,103 128 0,-45-10 0,-106-155 0,0 1 0,-2 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,7 47 0,-3-8 0,-6-36 0,0 0 0,0 37 0,-4 7-1213,-4 124-4358,-1-163 5571,-1 0 0,-16 56 0,-39 48-756,53-117 1900,-1-1 1,0-1-1,-1 1 0,-1-1 0,-1-1 0,-18 23 1,-18 16-1615,31-42 470,1 0 0,-2-1 0,0 0 0,0-2 0,-1 0 0,-33 14 0,-138 66 0,165-80 0,-1-2 0,0 0 0,0-2 0,-47 8 0,34-7 0,-42 13 0,11 4 0,20-7 0,-73 18 0,43-12 0,61-17 0,0-1 0,-1 0 0,-29 3 0,-31 4 0,54-8 0,0-1 0,-30 0 0,45-4 0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,0 1 0,1-1 0,-1-1 0,-9-5 0,-27-13-109,7 3-310,2-1 1,-65-45-1,86 52-6407</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="809.61">5190 1439 24575,'8'1'0,"1"0"0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,0 1 0,12 10 0,42 24 0,10 0 0,-45-24 0,44 19 0,-53-27 0,0 0 0,0-1 0,1-2 0,0 1 0,0-2 0,0-1 0,19 1 0,-2-1 0,-1 2 0,65 16 0,-65-11 0,1-2 0,62 4 0,-94-11 0,64 2 0,0-3 0,126-18 0,-105 3 0,-22 5 0,91-28 0,-129 29 0,-1-2 0,0 0 0,0-1 0,-2-2 0,1-1 0,-2-1 0,29-25 0,-47 35 0,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1-9 0,-1 5 0,1 1 0,0 0 0,12-20 0,140-199 0,-127 185 0,-21 30 0,0 1 0,23-26 0,-12 15 0,-2-1 0,-1 0 0,0-2 0,-2 0 0,15-43 0,-26 61 0,2-5 0,-1-1 0,-1 0 0,0 0 0,1-28 0,5-24 0,-2 21 0,-3-1 0,-2 0 0,-6-86 0,0 26 0,3 30-1365,0 56-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.65">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.64">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1552.66">7387 135 24575,'3'1'0,"-1"-1"0,1 2 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,2 3 0,23 31 0,26 70 0,43 76 0,-6-49 0,-86-126-83,4 8-173,0 0-1,2 0 1,0-1-1,21 25 1,-19-28-6570</inkml:trace>
 </inkml:ink>
 </file>
@@ -5478,11 +7187,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.15497076023391812</v>
+        <v>0.15406976744186046</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5522,7 +7231,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45841</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5587,11 +7296,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-140</v>
+        <v>-141</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.65714285714285714</v>
+        <v>-0.65248226950354615</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5618,11 +7327,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-120</v>
+        <v>-121</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.76666666666666672</v>
+        <v>-0.76033057851239672</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5649,11 +7358,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-109</v>
+        <v>-110</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.84403669724770647</v>
+        <v>-0.83636363636363631</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7208,11 +8917,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>9.9415204678362568E-2</v>
+        <v>9.8837209302325577E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -7230,7 +8939,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45841</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -7251,11 +8960,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.6666666666666667</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -7268,11 +8977,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>1.1363636363636365</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -7285,11 +8994,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.67567567567567566</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -7375,8 +9084,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -7567,11 +9276,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H84,J7)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.46341463414634149</v>
+        <v>0.48780487804878048</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -7600,11 +9309,11 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H84,J8)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.53658536585365857</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -8547,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="2:8">
@@ -8567,7 +10276,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -8670,7 +10379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" hidden="1">
       <c r="B59" s="65" t="s">
         <v>155</v>
       </c>
@@ -9070,7 +10779,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" hidden="1">
       <c r="B79" s="68" t="s">
         <v>161</v>
       </c>
@@ -9110,7 +10819,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" hidden="1">
       <c r="B81" s="68" t="s">
         <v>161</v>
       </c>
@@ -9210,7 +10919,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" hidden="1">
       <c r="B86" s="26" t="s">
         <v>165</v>
       </c>
@@ -9220,6 +10929,12 @@
     </row>
   </sheetData>
   <autoFilter ref="C2:H86" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="アルファ"/>
+        <filter val="プロト"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters blank="1">
         <filter val="未着手"/>
@@ -9244,6 +10959,166 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A56BFC-1958-4C3D-82E2-EF6D325D657E}">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="97">
+        <v>29</v>
+      </c>
+      <c r="C3" s="97">
+        <v>30</v>
+      </c>
+      <c r="D3" s="97">
+        <v>1</v>
+      </c>
+      <c r="E3" s="97">
+        <v>2</v>
+      </c>
+      <c r="F3" s="97">
+        <v>3</v>
+      </c>
+      <c r="G3" s="97">
+        <v>4</v>
+      </c>
+      <c r="H3" s="97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="97">
+        <v>6</v>
+      </c>
+      <c r="C4" s="95">
+        <v>7</v>
+      </c>
+      <c r="D4" s="95">
+        <v>8</v>
+      </c>
+      <c r="E4" s="95">
+        <v>9</v>
+      </c>
+      <c r="F4" s="95">
+        <v>10</v>
+      </c>
+      <c r="G4" s="95">
+        <v>11</v>
+      </c>
+      <c r="H4" s="95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="95">
+        <v>13</v>
+      </c>
+      <c r="C5" s="95">
+        <v>14</v>
+      </c>
+      <c r="D5" s="95">
+        <v>15</v>
+      </c>
+      <c r="E5" s="95">
+        <v>16</v>
+      </c>
+      <c r="F5" s="95">
+        <v>17</v>
+      </c>
+      <c r="G5" s="95">
+        <v>18</v>
+      </c>
+      <c r="H5" s="95">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="95">
+        <v>20</v>
+      </c>
+      <c r="C6" s="95">
+        <v>21</v>
+      </c>
+      <c r="D6" s="95">
+        <v>22</v>
+      </c>
+      <c r="E6" s="96">
+        <v>23</v>
+      </c>
+      <c r="F6" s="97">
+        <v>24</v>
+      </c>
+      <c r="G6" s="97">
+        <v>25</v>
+      </c>
+      <c r="H6" s="97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="97">
+        <v>27</v>
+      </c>
+      <c r="C7" s="97">
+        <v>28</v>
+      </c>
+      <c r="D7" s="97">
+        <v>29</v>
+      </c>
+      <c r="E7" s="97">
+        <v>30</v>
+      </c>
+      <c r="F7" s="97">
+        <v>31</v>
+      </c>
+      <c r="G7" s="97">
+        <v>1</v>
+      </c>
+      <c r="H7" s="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D6D36-0FF7-4DEF-A03E-3AF065CB9BCC}">
   <dimension ref="B1:H16"/>
   <sheetViews>
@@ -9416,7 +11291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557727AE-AD11-447F-B2F8-41A69D110F72}">
   <dimension ref="E2:AA26"/>
   <sheetViews>
@@ -9556,27 +11431,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -9819,26 +11673,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9855,4 +11711,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2_ChangeCollidable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2_ChangeCollidable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD7B24-8F5E-4C1D-8FCD-621B46599D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4E4354-F21D-4C36-A11F-30BEDCF05C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2999,7 +2999,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -4405,10 +4405,6 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -6824,7 +6820,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3654 2265 24575,'-31'0'0,"-1"1"0,1 2 0,-44 9 0,27-5 0,0-2 0,0-1 0,-90-7 0,32 0 0,-107 17 0,-9-1 0,-473-14-570,663-1 570,0-1 0,0-2 0,-42-11 0,39 7 0,0 2 0,-46-4 0,2 4-296,-124-29-1,100 15 365,24 6-68,0-2 0,-109-41 0,33 1-99,-142-63-168,243 94-776,8 4-1413,-54-34 0,47 23 3124,28 18 685,1 0-1,-40-34 1,58 43-1146,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,1 0 0,0 1 0,-4-18 0,5 14-207,-8-36 0,2 0 0,-2-84 0,10 117 0,0-25 0,9-68 0,-7 94 0,1 0 0,1 0 0,0 1 0,1-1 0,1 1 0,0 0 0,0 1 0,13-18 0,23-32-452,64-83 1134,-88 123-2643,2 2 0,28-24 0,41-35 347,28-23 1558,-19 35 1888,2 4 0,188-87 0,-178 104-2326,2 5 0,1 4 0,131-23 0,-138 33-2142,-63 15 1568,1 2-1,55-6 1,90-1 963,479-21-635,-504 37 1171,239 9-1340,-327-3 2278,0 5 0,-1 2 0,93 29 1,-56-9-509,-49-16 1,0 4 1,75 34-1,-32-2-793,-2 5 0,96 70 0,-123-66 873,89 91 0,-140-126-991,35 33 49,103 128 0,-45-10 0,-106-155 0,0 1 0,-2 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,7 47 0,-3-8 0,-6-36 0,0 0 0,0 37 0,-4 7-1213,-4 124-4358,-1-163 5571,-1 0 0,-16 56 0,-39 48-756,53-117 1900,-1-1 1,0-1-1,-1 1 0,-1-1 0,-1-1 0,-18 23 1,-18 16-1615,31-42 470,1 0 0,-2-1 0,0 0 0,0-2 0,-1 0 0,-33 14 0,-138 66 0,165-80 0,-1-2 0,0 0 0,0-2 0,-47 8 0,34-7 0,-42 13 0,11 4 0,20-7 0,-73 18 0,43-12 0,61-17 0,0-1 0,-1 0 0,-29 3 0,-31 4 0,54-8 0,0-1 0,-30 0 0,45-4 0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,0 1 0,1-1 0,-1-1 0,-9-5 0,-27-13-109,7 3-310,2-1 1,-65-45-1,86 52-6407</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="809.61">5190 1439 24575,'8'1'0,"1"0"0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,0 1 0,12 10 0,42 24 0,10 0 0,-45-24 0,44 19 0,-53-27 0,0 0 0,0-1 0,1-2 0,0 1 0,0-2 0,0-1 0,19 1 0,-2-1 0,-1 2 0,65 16 0,-65-11 0,1-2 0,62 4 0,-94-11 0,64 2 0,0-3 0,126-18 0,-105 3 0,-22 5 0,91-28 0,-129 29 0,-1-2 0,0 0 0,0-1 0,-2-2 0,1-1 0,-2-1 0,29-25 0,-47 35 0,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1-9 0,-1 5 0,1 1 0,0 0 0,12-20 0,140-199 0,-127 185 0,-21 30 0,0 1 0,23-26 0,-12 15 0,-2-1 0,-1 0 0,0-2 0,-2 0 0,15-43 0,-26 61 0,2-5 0,-1-1 0,-1 0 0,0 0 0,1-28 0,5-24 0,-2 21 0,-3-1 0,-2 0 0,-6-86 0,0 26 0,3 30-1365,0 56-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.64">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.63">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1552.66">7387 135 24575,'3'1'0,"-1"-1"0,1 2 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,2 3 0,23 31 0,26 70 0,43 76 0,-6-49 0,-86-126-83,4 8-173,0 0-1,2 0 1,0-1-1,21 25 1,-19-28-6570</inkml:trace>
 </inkml:ink>
 </file>
@@ -7187,11 +7183,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.15406976744186046</v>
+        <v>0.15056818181818182</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7231,7 +7227,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45844</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7296,11 +7292,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-141</v>
+        <v>-145</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.65248226950354615</v>
+        <v>-0.6344827586206897</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7327,11 +7323,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-121</v>
+        <v>-125</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.76033057851239672</v>
+        <v>-0.73599999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7358,11 +7354,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-110</v>
+        <v>-114</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.83636363636363631</v>
+        <v>-0.80701754385964908</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -8917,11 +8913,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>9.8837209302325577E-2</v>
+        <v>9.6590909090909088E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -8939,7 +8935,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45844</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -8960,11 +8956,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.9230769230769231</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -8977,11 +8973,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>1.25</v>
+        <v>1.4705882352941178</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -8994,11 +8990,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.7142857142857143</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -9085,7 +9081,7 @@
   <dimension ref="B2:M87"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C43"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -10963,7 +10959,7 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11431,6 +11427,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -11673,28 +11690,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11711,23 +11726,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2_ChangeCollidable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4E4354-F21D-4C36-A11F-30BEDCF05C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F9D8EC-2527-48AF-8A22-5E44E55042A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -6820,7 +6820,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3654 2265 24575,'-31'0'0,"-1"1"0,1 2 0,-44 9 0,27-5 0,0-2 0,0-1 0,-90-7 0,32 0 0,-107 17 0,-9-1 0,-473-14-570,663-1 570,0-1 0,0-2 0,-42-11 0,39 7 0,0 2 0,-46-4 0,2 4-296,-124-29-1,100 15 365,24 6-68,0-2 0,-109-41 0,33 1-99,-142-63-168,243 94-776,8 4-1413,-54-34 0,47 23 3124,28 18 685,1 0-1,-40-34 1,58 43-1146,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,1 0 0,0 1 0,-4-18 0,5 14-207,-8-36 0,2 0 0,-2-84 0,10 117 0,0-25 0,9-68 0,-7 94 0,1 0 0,1 0 0,0 1 0,1-1 0,1 1 0,0 0 0,0 1 0,13-18 0,23-32-452,64-83 1134,-88 123-2643,2 2 0,28-24 0,41-35 347,28-23 1558,-19 35 1888,2 4 0,188-87 0,-178 104-2326,2 5 0,1 4 0,131-23 0,-138 33-2142,-63 15 1568,1 2-1,55-6 1,90-1 963,479-21-635,-504 37 1171,239 9-1340,-327-3 2278,0 5 0,-1 2 0,93 29 1,-56-9-509,-49-16 1,0 4 1,75 34-1,-32-2-793,-2 5 0,96 70 0,-123-66 873,89 91 0,-140-126-991,35 33 49,103 128 0,-45-10 0,-106-155 0,0 1 0,-2 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,7 47 0,-3-8 0,-6-36 0,0 0 0,0 37 0,-4 7-1213,-4 124-4358,-1-163 5571,-1 0 0,-16 56 0,-39 48-756,53-117 1900,-1-1 1,0-1-1,-1 1 0,-1-1 0,-1-1 0,-18 23 1,-18 16-1615,31-42 470,1 0 0,-2-1 0,0 0 0,0-2 0,-1 0 0,-33 14 0,-138 66 0,165-80 0,-1-2 0,0 0 0,0-2 0,-47 8 0,34-7 0,-42 13 0,11 4 0,20-7 0,-73 18 0,43-12 0,61-17 0,0-1 0,-1 0 0,-29 3 0,-31 4 0,54-8 0,0-1 0,-30 0 0,45-4 0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,0 1 0,1-1 0,-1-1 0,-9-5 0,-27-13-109,7 3-310,2-1 1,-65-45-1,86 52-6407</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="809.61">5190 1439 24575,'8'1'0,"1"0"0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,0 1 0,12 10 0,42 24 0,10 0 0,-45-24 0,44 19 0,-53-27 0,0 0 0,0-1 0,1-2 0,0 1 0,0-2 0,0-1 0,19 1 0,-2-1 0,-1 2 0,65 16 0,-65-11 0,1-2 0,62 4 0,-94-11 0,64 2 0,0-3 0,126-18 0,-105 3 0,-22 5 0,91-28 0,-129 29 0,-1-2 0,0 0 0,0-1 0,-2-2 0,1-1 0,-2-1 0,29-25 0,-47 35 0,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1-9 0,-1 5 0,1 1 0,0 0 0,12-20 0,140-199 0,-127 185 0,-21 30 0,0 1 0,23-26 0,-12 15 0,-2-1 0,-1 0 0,0-2 0,-2 0 0,15-43 0,-26 61 0,2-5 0,-1-1 0,-1 0 0,0 0 0,1-28 0,5-24 0,-2 21 0,-3-1 0,-2 0 0,-6-86 0,0 26 0,3 30-1365,0 56-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.63">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.62">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1552.66">7387 135 24575,'3'1'0,"-1"-1"0,1 2 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,2 3 0,23 31 0,26 70 0,43 76 0,-6-49 0,-86-126-83,4 8-173,0 0-1,2 0 1,0-1-1,21 25 1,-19-28-6570</inkml:trace>
 </inkml:ink>
 </file>
@@ -7183,11 +7183,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.15056818181818182</v>
+        <v>0.14887640449438203</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45848</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7292,11 +7292,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-145</v>
+        <v>-147</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.6344827586206897</v>
+        <v>-0.62585034013605445</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7323,11 +7323,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-125</v>
+        <v>-127</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.73599999999999999</v>
+        <v>-0.72440944881889768</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7354,11 +7354,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-114</v>
+        <v>-116</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.80701754385964908</v>
+        <v>-0.7931034482758621</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
-        <v>17</v>
+        <v>18.25</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -8913,11 +8913,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>9.6590909090909088E-2</v>
+        <v>0.10252808988764045</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45848</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -8956,11 +8956,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>2.5</v>
+        <v>2.96875</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -8973,11 +8973,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>1.4705882352941178</v>
+        <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -8990,11 +8990,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.78125</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -9080,8 +9080,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -9234,7 +9234,7 @@
         <v>0.5</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="43" t="s">
@@ -9247,7 +9247,7 @@
       <c r="L6" s="41"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="2:13" hidden="1">
+    <row r="7" spans="2:13">
       <c r="B7" s="33" t="s">
         <v>208</v>
       </c>
@@ -9272,15 +9272,15 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H84,J7)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.48780487804878048</v>
+        <v>0.53658536585365857</v>
       </c>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13">
       <c r="B8" s="33" t="s">
         <v>208</v>
       </c>
@@ -9305,15 +9305,15 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H84,J8)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.51219512195121952</v>
+        <v>0.46341463414634149</v>
       </c>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="2:13" hidden="1">
+    <row r="9" spans="2:13">
       <c r="B9" s="48" t="s">
         <v>142</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13">
       <c r="B10" s="48" t="s">
         <v>142</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13">
       <c r="B11" s="48" t="s">
         <v>142</v>
       </c>
@@ -9404,7 +9404,7 @@
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" hidden="1" thickBot="1">
+    <row r="12" spans="2:13" ht="33.75" thickBot="1">
       <c r="B12" s="48" t="s">
         <v>142</v>
       </c>
@@ -9437,7 +9437,7 @@
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="2:13" hidden="1">
+    <row r="13" spans="2:13">
       <c r="B13" s="48" t="s">
         <v>142</v>
       </c>
@@ -9460,7 +9460,7 @@
       <c r="K13" s="56"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:13" hidden="1">
+    <row r="14" spans="2:13">
       <c r="B14" s="57" t="s">
         <v>145</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="2:13" hidden="1">
+    <row r="15" spans="2:13">
       <c r="B15" s="57" t="s">
         <v>145</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13">
       <c r="B16" s="57" t="s">
         <v>145</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="2:8" hidden="1">
+    <row r="17" spans="2:8">
       <c r="B17" s="57" t="s">
         <v>145</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1">
+    <row r="18" spans="2:8">
       <c r="B18" s="57" t="s">
         <v>145</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1">
+    <row r="19" spans="2:8">
       <c r="B19" s="57" t="s">
         <v>145</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1">
+    <row r="20" spans="2:8">
       <c r="B20" s="57" t="s">
         <v>145</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1">
+    <row r="21" spans="2:8">
       <c r="B21" s="57" t="s">
         <v>145</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1">
+    <row r="22" spans="2:8">
       <c r="B22" s="57" t="s">
         <v>145</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1">
+    <row r="23" spans="2:8">
       <c r="B23" s="57" t="s">
         <v>145</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1">
+    <row r="24" spans="2:8">
       <c r="B24" s="57" t="s">
         <v>145</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1">
+    <row r="25" spans="2:8">
       <c r="B25" s="57" t="s">
         <v>145</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>0.5</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -9743,10 +9743,10 @@
         <v>0.25</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" hidden="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="59" t="s">
         <v>176</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1">
+    <row r="29" spans="2:8">
       <c r="B29" s="59" t="s">
         <v>176</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1">
+    <row r="30" spans="2:8">
       <c r="B30" s="59" t="s">
         <v>176</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1">
+    <row r="31" spans="2:8">
       <c r="B31" s="59" t="s">
         <v>176</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
+    <row r="32" spans="2:8">
       <c r="B32" s="59" t="s">
         <v>176</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1">
+    <row r="33" spans="2:8">
       <c r="B33" s="60" t="s">
         <v>180</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1">
+    <row r="34" spans="2:8">
       <c r="B34" s="60" t="s">
         <v>181</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1">
+    <row r="35" spans="2:8">
       <c r="B35" s="60" t="s">
         <v>182</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1">
+    <row r="36" spans="2:8">
       <c r="B36" s="60" t="s">
         <v>199</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1">
+    <row r="37" spans="2:8">
       <c r="B37" s="60" t="s">
         <v>199</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1">
+    <row r="38" spans="2:8">
       <c r="B38" s="60" t="s">
         <v>227</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1">
+    <row r="44" spans="2:8">
       <c r="B44" s="61" t="s">
         <v>215</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1">
+    <row r="46" spans="2:8">
       <c r="B46" s="61" t="s">
         <v>215</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1">
+    <row r="48" spans="2:8">
       <c r="B48" s="62" t="s">
         <v>150</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1">
+    <row r="49" spans="2:8">
       <c r="B49" s="62" t="s">
         <v>150</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1">
+    <row r="51" spans="2:8">
       <c r="B51" s="63" t="s">
         <v>153</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>0.5</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="2:8">
@@ -10929,11 +10929,6 @@
       <filters>
         <filter val="アルファ"/>
         <filter val="プロト"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="未着手"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10958,7 +10953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A56BFC-1958-4C3D-82E2-EF6D325D657E}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -11427,27 +11422,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -11690,26 +11664,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11726,4 +11702,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>